--- a/Excel/TestData.xlsx
+++ b/Excel/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CB899183-EB4C-4830-9475-05A5A5F6162C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{76BF5EF5-D6C9-480C-95D3-714340DBFEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,36 +21,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Neeraj@123</t>
   </si>
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>neeraj.sharma@maverickdigital.net</t>
+    <t>test@test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,17 +62,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,7 +351,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -376,24 +362,21 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="B2" s="1">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1A454FB1-FD86-4706-9392-B447B54A0472}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>